--- a/Контрольные на 4-й семестр/Организация предпринимательской  деятельности/Контрольная/Расчет.xlsx
+++ b/Контрольные на 4-й семестр/Организация предпринимательской  деятельности/Контрольная/Расчет.xlsx
@@ -16,18 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Благоприятном</t>
+  </si>
+  <si>
+    <t>Неблагоприятном</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -46,12 +60,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -460,13 +544,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -512,7 +599,59 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>250000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>0.5*B11+0.5*C11</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" ref="B18:B19" si="0">0.5*B12+0.5*C12</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
 </file>